--- a/BTS101.CA.xlsx
+++ b/BTS101.CA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FEC2C1-6DCF-4534-BDC2-0E25BF62ED57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE074E1-3666-4C56-A337-BC8DBDFCE826}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -236,6 +236,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,8 +268,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,825 +581,407 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>9</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>12</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>11</v>
-      </c>
-      <c r="F23">
-        <v>9</v>
-      </c>
-      <c r="G23">
-        <v>8</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>9</v>
-      </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>13</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="C30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <v>7</v>
-      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BTS101.CA.xlsx
+++ b/BTS101.CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EEC873-5DC9-42A2-8B65-042CC8D15754}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5068DC15-B6FE-4F91-9979-E3EAFCE1784B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>10.03125</v>
@@ -868,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2">
         <v>9.59375</v>
@@ -894,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>12.71875</v>
